--- a/formularioProject/planilhas/SOLICITAÇÕES.xlsx
+++ b/formularioProject/planilhas/SOLICITAÇÕES.xlsx
@@ -509,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L3" sqref="A2:L3"/>
@@ -653,6 +653,66 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="7" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Marcus Vinicius Silva Santana</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Rua Castro Alves</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>marcus.santana</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Thayna Santana</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Analista de Testes de Software</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Automação</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Todos</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Notebook + Carregador</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>LUM-001-001-006</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Mayara Almeilda</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>23/05/2024 13:58:44</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/formularioProject/planilhas/SOLICITAÇÕES.xlsx
+++ b/formularioProject/planilhas/SOLICITAÇÕES.xlsx
@@ -509,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L3" sqref="A2:L3"/>
@@ -713,6 +713,66 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="7" t="n">
+        <v>45439</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Thayna Silva Santana</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Rua Castro Alves</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>thayna.silva</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Francisco</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Estagiario</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Automação</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Todos</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Notebook + Carregador</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>LUM-001-001-012</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Mayara Almeilda</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>23/05/2024 16:20:15</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/formularioProject/planilhas/SOLICITAÇÕES.xlsx
+++ b/formularioProject/planilhas/SOLICITAÇÕES.xlsx
@@ -509,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L3" sqref="A2:L3"/>
@@ -773,6 +773,66 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="7" t="n">
+        <v>45439</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Thayna Silva Santana</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Aristides Attico 2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>thayna.santana</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Francisco</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Estagiaria</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Automação</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Todos</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Notebook + Carregador</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>LUM-001-001-078</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Mayara Almeida</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>23/05/2024 17:46:56</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/formularioProject/planilhas/SOLICITAÇÕES.xlsx
+++ b/formularioProject/planilhas/SOLICITAÇÕES.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitações" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -18,7 +18,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,10 +29,14 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
+      <color rgb="FFffffff"/>
       <sz val="11"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
@@ -44,12 +48,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF44546a"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -59,118 +62,143 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color theme="0"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color theme="0"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color theme="0"/>
+        <color rgb="FFffffff"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFffffff"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFffffff"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFffffff"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFffffff"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFffffff"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFffffff"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFffffff"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFffffff"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFffffff"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFffffff"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFffffff"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFffffff"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFffffff"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFffffff"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
       <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -247,10 +275,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -277,82 +305,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -364,302 +392,324 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L3" sqref="A2:L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="23.21875" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="25" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="16.109375" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="14" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="14.44140625" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="26.33203125" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="15.44140625" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="9.77734375" customWidth="1" min="8" max="8"/>
-    <col width="20.44140625" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="16.6640625" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="20.5546875" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="23" customWidth="1" min="12" max="12"/>
+    <col width="23.29071428571428" bestFit="1" customWidth="1" style="9" min="1" max="1"/>
+    <col width="25.005" bestFit="1" customWidth="1" style="10" min="2" max="2"/>
+    <col width="16.14785714285714" bestFit="1" customWidth="1" style="10" min="3" max="3"/>
+    <col width="14.005" bestFit="1" customWidth="1" style="10" min="4" max="4"/>
+    <col width="14.43357142857143" bestFit="1" customWidth="1" style="10" min="5" max="5"/>
+    <col width="26.29071428571428" bestFit="1" customWidth="1" style="10" min="6" max="6"/>
+    <col width="15.43357142857143" bestFit="1" customWidth="1" style="10" min="7" max="7"/>
+    <col width="9.719285714285713" bestFit="1" customWidth="1" style="10" min="8" max="8"/>
+    <col width="20.43357142857143" bestFit="1" customWidth="1" style="10" min="9" max="9"/>
+    <col width="16.71928571428571" bestFit="1" customWidth="1" style="10" min="10" max="10"/>
+    <col width="20.57642857142857" bestFit="1" customWidth="1" style="10" min="11" max="11"/>
+    <col width="23.005" bestFit="1" customWidth="1" style="10" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.8" customHeight="1">
-      <c r="A1" s="6" t="inlineStr">
+    <row r="1" ht="20.25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>INICIO DO COLABORADOR</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>NOME</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>ENDEREÇO</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>EMAIL</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>GESTOR DIRETO</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>CARGO</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>DEPARTAMENTO</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>CLIENTE</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>DISPOSITIVO</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="6" t="inlineStr">
         <is>
           <t>CODIGO DO ATIVO</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="5" t="inlineStr">
         <is>
           <t>SOLICITANTE</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>DATA DA SOLICITAÇÃO</t>
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="18.75" customHeight="1">
       <c r="A2" s="7" t="n">
-        <v>45439</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Marcus Vinicius Silva Santana</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+        <v>25568.87552591435</v>
+      </c>
+      <c r="B2" s="10" t="inlineStr">
+        <is>
+          <t>Thayna Silva Santana</t>
+        </is>
+      </c>
+      <c r="C2" s="10" t="inlineStr">
         <is>
           <t>Rua Castro Alves</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>marcus.santana</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Thayna Santana</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Analista de Testes de Software</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Teste de Software</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="D2" s="10" t="inlineStr">
+        <is>
+          <t>thayna.santana</t>
+        </is>
+      </c>
+      <c r="E2" s="10" t="inlineStr">
+        <is>
+          <t>Francisco</t>
+        </is>
+      </c>
+      <c r="F2" s="10" t="inlineStr">
+        <is>
+          <t>Analista de Automação</t>
+        </is>
+      </c>
+      <c r="G2" s="10" t="inlineStr">
+        <is>
+          <t>Automação</t>
+        </is>
+      </c>
+      <c r="H2" s="10" t="inlineStr">
         <is>
           <t>Todos</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="10" t="inlineStr">
         <is>
           <t>Notebook + Carregador</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>LUM-001-001</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Mayara Almeilda</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>23/05/2024 13:03:09</t>
+      <c r="J2" s="10" t="inlineStr">
+        <is>
+          <t>LUM-001-001-024</t>
+        </is>
+      </c>
+      <c r="K2" s="10" t="inlineStr">
+        <is>
+          <t>Mayara Almeida</t>
+        </is>
+      </c>
+      <c r="L2" s="10" t="inlineStr">
+        <is>
+          <t>24/05/2024 17:21:27</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="n">
-        <v>45434</v>
+      <c r="A3" s="11" t="n">
+        <v>45446</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marcus Vinicius Silva Santana</t>
+          <t>Thayna Silva Santana</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -669,17 +719,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>marcus.santana</t>
+          <t>thayna.santana</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Thayna Santana</t>
+          <t>Francisco</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Analista de Testes de Software</t>
+          <t>Estagiaria</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -699,23 +749,23 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>LUM-001-001-006</t>
+          <t>LUM-001-001-048</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Mayara Almeilda</t>
+          <t>Mayara Almeida</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>23/05/2024 13:58:44</t>
+          <t>28/05/2024 17:44:15</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="n">
-        <v>45439</v>
+      <c r="A4" s="11" t="n">
+        <v>45453</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -724,12 +774,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rua Castro Alves</t>
+          <t>Rua Aristides Áttico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>thayna.silva</t>
+          <t>thaynas.s502@gmail.com</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -739,7 +789,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Estagiario</t>
+          <t>Estagiaria</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -759,77 +809,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>LUM-001-001-012</t>
+          <t>LUM-001-001-018</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Mayara Almeilda</t>
+          <t>Mayara Almeida</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>23/05/2024 16:20:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="n">
-        <v>45439</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Thayna Silva Santana</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Aristides Attico 2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>thayna.santana</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Francisco</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Estagiaria</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Automação</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Todos</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Notebook + Carregador</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>LUM-001-001-078</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Mayara Almeida</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>23/05/2024 17:46:56</t>
+          <t>03/06/2024 18:40:00</t>
         </is>
       </c>
     </row>
